--- a/mean_results/avg_ensemble_train_results_80_20.xlsx
+++ b/mean_results/avg_ensemble_train_results_80_20.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>BaggingClassifier_LGBMClassifier</t>
+          <t>AdaBoostClassifierDecisionTreeClassifier</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6958188153310105</v>
+        <v>0.8009104486691377</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7473684210526316</v>
+        <v>0.9894736842105264</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7205712641788591</v>
+        <v>0.8850629446279047</v>
       </c>
       <c r="F2" t="n">
         <v>38</v>
@@ -518,13 +518,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8164152840623429</v>
+        <v>0.9911111111111112</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7745454545454546</v>
+        <v>0.8290909090909091</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7948619970589139</v>
+        <v>0.9026774880800472</v>
       </c>
       <c r="F3" t="n">
         <v>55</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.8946236559139784</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.8946236559139784</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.8946236559139784</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.8946236559139784</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7561170496966767</v>
+        <v>0.8960107798901245</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7609569377990431</v>
+        <v>0.9092822966507177</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7577166306188865</v>
+        <v>0.893870216353976</v>
       </c>
       <c r="F5" t="n">
         <v>93</v>
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7671393075914759</v>
+        <v>0.9133947114036381</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.8946236559139784</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7645066438391066</v>
+        <v>0.8954801477447631</v>
       </c>
       <c r="F6" t="n">
         <v>93</v>
@@ -593,7 +593,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BaggingClassifier_DecisionTreeClassifier</t>
+          <t>BaggingClassifierDecisionTreeClassifier</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6975807916710337</v>
+        <v>0.6484139784946237</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7210526315789474</v>
+        <v>0.6263157894736842</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6907181148260456</v>
+        <v>0.6239861464616528</v>
       </c>
       <c r="F7" t="n">
         <v>38</v>
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8148741837872272</v>
+        <v>0.7606740430742926</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7636363636363636</v>
+        <v>0.7672727272727273</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7769498011498613</v>
+        <v>0.7584425092726981</v>
       </c>
       <c r="F8" t="n">
         <v>55</v>
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.746236559139785</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="D9" t="n">
-        <v>0.746236559139785</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="E9" t="n">
-        <v>0.746236559139785</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="F9" t="n">
-        <v>0.746236559139785</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="10">
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7562274877291305</v>
+        <v>0.7045440107844582</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7423444976076554</v>
+        <v>0.6967942583732057</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7338339579879534</v>
+        <v>0.6912143278671754</v>
       </c>
       <c r="F10" t="n">
         <v>93</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7669478515246967</v>
+        <v>0.7148043392675462</v>
       </c>
       <c r="D11" t="n">
-        <v>0.746236559139785</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7417153486734634</v>
+        <v>0.7035033502746366</v>
       </c>
       <c r="F11" t="n">
         <v>93</v>
@@ -697,7 +697,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BaggingClassifier_RandomForestClassifier</t>
+          <t>BaggingClassifierSVC</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6635204937345771</v>
+        <v>0.544391089769241</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.6684210526315789</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6932547356546157</v>
+        <v>0.5982316572397937</v>
       </c>
       <c r="F12" t="n">
         <v>38</v>
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8073134034628042</v>
+        <v>0.7375486588812457</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7345454545454546</v>
+        <v>0.6218181818181818</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7646146634258136</v>
+        <v>0.6729415133751095</v>
       </c>
       <c r="F13" t="n">
         <v>55</v>
@@ -746,16 +746,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.735483870967742</v>
+        <v>0.6408602150537634</v>
       </c>
       <c r="D14" t="n">
-        <v>0.735483870967742</v>
+        <v>0.6408602150537634</v>
       </c>
       <c r="E14" t="n">
-        <v>0.735483870967742</v>
+        <v>0.6408602150537634</v>
       </c>
       <c r="F14" t="n">
-        <v>0.735483870967742</v>
+        <v>0.6408602150537634</v>
       </c>
     </row>
     <row r="15">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7354169485986907</v>
+        <v>0.6409698743252433</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7356937799043062</v>
+        <v>0.6451196172248803</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7289346995402147</v>
+        <v>0.6355865853074516</v>
       </c>
       <c r="F15" t="n">
         <v>93</v>
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.7485593113157867</v>
+        <v>0.6586240607494588</v>
       </c>
       <c r="D16" t="n">
-        <v>0.735483870967742</v>
+        <v>0.6408602150537634</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7354568434762919</v>
+        <v>0.6424149054918622</v>
       </c>
       <c r="F16" t="n">
         <v>93</v>
@@ -801,7 +801,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>BaggingClassifier_SVC</t>
+          <t>BaggingClassifierElasticNet</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6117149517149517</v>
+        <v>0.5306269124303296</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.7157894736842105</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6335854795610893</v>
+        <v>0.6018352699931647</v>
       </c>
       <c r="F17" t="n">
         <v>38</v>
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7522276835262407</v>
+        <v>0.7437187398666714</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7127272727272727</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7316722616012905</v>
+        <v>0.6161820921749044</v>
       </c>
       <c r="F18" t="n">
         <v>55</v>
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.6903225806451613</v>
+        <v>0.6150537634408602</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6903225806451613</v>
+        <v>0.6150537634408602</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6903225806451613</v>
+        <v>0.6150537634408602</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6903225806451613</v>
+        <v>0.6150537634408602</v>
       </c>
     </row>
     <row r="20">
@@ -870,13 +870,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.6819713176205962</v>
+        <v>0.6371728261485005</v>
       </c>
       <c r="D20" t="n">
-        <v>0.685311004784689</v>
+        <v>0.630622009569378</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6826288705811899</v>
+        <v>0.6090086810840345</v>
       </c>
       <c r="F20" t="n">
         <v>93</v>
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6948138791302301</v>
+        <v>0.6566489609141877</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6903225806451613</v>
+        <v>0.6150537634408602</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6915937915203481</v>
+        <v>0.6103199497780646</v>
       </c>
       <c r="F21" t="n">
         <v>93</v>
@@ -905,7 +905,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AdaBoostClassifier_ElasticNet</t>
+          <t>AdaBoostClassifierElasticNet</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5616765324185241</v>
+        <v>0.5149838549713392</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6473684210526316</v>
+        <v>0.6789473684210526</v>
       </c>
       <c r="E22" t="n">
-        <v>0.600834318452683</v>
+        <v>0.5848147782309223</v>
       </c>
       <c r="F22" t="n">
         <v>38</v>
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.7286887382766859</v>
+        <v>0.7158709061280641</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6509090909090909</v>
+        <v>0.5563636363636364</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6870531869196598</v>
+        <v>0.6247899847917365</v>
       </c>
       <c r="F23" t="n">
         <v>55</v>
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.6494623655913978</v>
+        <v>0.6064516129032258</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6494623655913978</v>
+        <v>0.6064516129032258</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6494623655913978</v>
+        <v>0.6064516129032258</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6494623655913978</v>
+        <v>0.6064516129032258</v>
       </c>
     </row>
     <row r="25">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.6451826353476051</v>
+        <v>0.6154273805497017</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6491387559808612</v>
+        <v>0.6176555023923445</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6439437526861713</v>
+        <v>0.6048023815113295</v>
       </c>
       <c r="F25" t="n">
         <v>93</v>
@@ -994,13 +994,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.6604471917970069</v>
+        <v>0.6337880250102625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6494623655913978</v>
+        <v>0.6064516129032258</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6518239718471316</v>
+        <v>0.6084560294228016</v>
       </c>
       <c r="F26" t="n">
         <v>93</v>
@@ -1009,7 +1009,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>BaggingClassifier_ElasticNet</t>
+          <t>BaggingClassifierLogisticRegression</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5685743428338288</v>
+        <v>0.4271645773063324</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6368421052631579</v>
+        <v>0.5631578947368421</v>
       </c>
       <c r="E27" t="n">
-        <v>0.595521478128277</v>
+        <v>0.4831853539718708</v>
       </c>
       <c r="F27" t="n">
         <v>38</v>
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.7313578899316605</v>
+        <v>0.7082427952001478</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6618181818181819</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6900568389364767</v>
+        <v>0.6582235921070921</v>
       </c>
       <c r="F28" t="n">
         <v>55</v>
@@ -1058,16 +1058,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6516129032258065</v>
+        <v>0.6172043010752688</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6516129032258065</v>
+        <v>0.6172043010752688</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6516129032258065</v>
+        <v>0.6172043010752688</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6516129032258065</v>
+        <v>0.6172043010752688</v>
       </c>
     </row>
     <row r="30">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6499661163827446</v>
+        <v>0.5677036862532401</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6493301435406698</v>
+        <v>0.6088516746411483</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6427891585323768</v>
+        <v>0.5707044730394816</v>
       </c>
       <c r="F30" t="n">
         <v>93</v>
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.6648441825153422</v>
+        <v>0.5933936308994491</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6516129032258065</v>
+        <v>0.6172043010752688</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6514294872083951</v>
+        <v>0.5867025915787221</v>
       </c>
       <c r="F31" t="n">
         <v>93</v>
@@ -1113,7 +1113,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AdaBoostClassifier_SVC</t>
+          <t>AdaBoostClassifierLogisticRegression</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.4281294888519035</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.3842105263157894</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.3770904388007462</v>
       </c>
       <c r="F32" t="n">
         <v>38</v>
@@ -1142,13 +1142,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.672287475030813</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7432432432432433</v>
+        <v>0.7157959969238489</v>
       </c>
       <c r="F33" t="n">
         <v>55</v>
@@ -1162,16 +1162,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.6301075268817204</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.6301075268817204</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.6301075268817204</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.6301075268817204</v>
       </c>
     </row>
     <row r="35">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.2956989247311828</v>
+        <v>0.5502084819413582</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5</v>
+        <v>0.5921052631578947</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3716216216216217</v>
+        <v>0.5464432178622975</v>
       </c>
       <c r="F35" t="n">
         <v>93</v>
@@ -1202,26 +1202,131 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>0.5725239968071726</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.6301075268817204</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5774001774756994</v>
+      </c>
+      <c r="F36" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>AdaBoostClassifierSVC</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Did not Play: 0</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Played in the NHL: 1</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5913978494623656</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7432432432432433</v>
+      </c>
+      <c r="F38" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5913978494623656</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5913978494623656</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5913978494623656</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5913978494623656</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.2956989247311828</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3716216216216217</v>
+      </c>
+      <c r="F40" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>0.3497514163487109</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D41" t="n">
         <v>0.5913978494623656</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E41" t="n">
         <v>0.4395524556814879</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F41" t="n">
         <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A37:A41"/>
     <mergeCell ref="A32:A36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
